--- a/STOCK UTN/2023/12 DESEMBER/04 DESEMBER - 09 DESEMBER 2023.xlsx
+++ b/STOCK UTN/2023/12 DESEMBER/04 DESEMBER - 09 DESEMBER 2023.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'JK KENKO'!$A$79:$C$219</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">IMPORT!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -11432,7 +11432,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -11550,6 +11550,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -13993,7 +13996,7 @@
     <row r="2" spans="1:3">
       <c r="A2" s="43" t="str">
         <f ca="1">"TANGGAL : "&amp;SUBSTITUTE(MID(CELL("filename"),SEARCH("[",CELL("filename"))+1, SEARCH("]",CELL("filename"))-SEARCH("[",CELL("filename"))-1),".xlsx","")</f>
-        <v>TANGGAL : 04 DESEMBER - 09 DESEMBER 2023</v>
+        <v>TANGGAL : LOG_DESEMBER.XLSX</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -38937,8 +38940,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A122" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A965" zoomScale="70" zoomScaleNormal="130" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A1002" sqref="A1002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -41676,7 +41679,7 @@
       <c r="A137" s="20" t="s">
         <v>1004</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="B137" s="44" t="s">
         <v>997</v>
       </c>
       <c r="C137" s="22">
